--- a/contentspreadsheets/MasterContentNewAUDpricesTEST.xlsx
+++ b/contentspreadsheets/MasterContentNewAUDpricesTEST.xlsx
@@ -5356,7 +5356,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1150">
+  <cellStyleXfs count="1151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5364,6 +5364,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6677,7 +6678,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1150">
+  <cellStyles count="1151">
     <cellStyle name="Excel Built-in Normal" xfId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -7825,6 +7826,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1147" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1150" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10975,10 +10977,9 @@
       <c r="B13" s="52" t="s">
         <v>1646</v>
       </c>
-      <c r="C13" s="53">
+      <c r="D13" s="53">
         <v>165</v>
       </c>
-      <c r="D13" s="34"/>
       <c r="E13" s="57"/>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
